--- a/80Missions.xlsx
+++ b/80Missions.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magneton\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="11475" windowHeight="7230" firstSheet="8" activeTab="10"/>
   </bookViews>
@@ -477,6 +482,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -524,7 +532,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -559,7 +567,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -24203,10 +24211,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E104"/>
+      <selection activeCell="A3" sqref="A3:E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24250,16 +24258,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2.0804146221366548</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -24267,16 +24275,16 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2.0804146221366548</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>8.4804146221366548</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -24284,16 +24292,16 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>8.4804146221366548</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>8.4804146221366548</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -24301,16 +24309,16 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>8.4804146221366548</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>14.880414622136655</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -24318,16 +24326,16 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>8.4804146221366548</v>
+        <v>16.5</v>
       </c>
       <c r="E7">
-        <v>14.880414622136655</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -24335,106 +24343,106 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>14.988211768802618</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>14.988211768802618</v>
+        <v>6.75</v>
       </c>
       <c r="E10">
-        <v>15.588211768802617</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>15.588211768802617</v>
+        <v>7.5</v>
       </c>
       <c r="E11">
-        <v>17.860669139139848</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>2.494800677650963</v>
+        <v>8.5</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>8.75</v>
       </c>
       <c r="E13">
-        <v>10.4</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -24443,10 +24451,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.4</v>
+        <v>9.75</v>
       </c>
       <c r="E14">
-        <v>11.905199322349038</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -24454,16 +24462,16 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>3.8124709303897752</v>
+        <v>10.25</v>
       </c>
       <c r="E15">
-        <v>6.5</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -24471,16 +24479,16 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16">
-        <v>6.5</v>
+        <v>11.25</v>
       </c>
       <c r="E16">
-        <v>7.4</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -24494,10 +24502,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.4</v>
+        <v>12.25</v>
       </c>
       <c r="E17">
-        <v>7.625</v>
+        <v>12.3125</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -24505,38 +24513,38 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
       <c r="D18">
-        <v>7.625</v>
+        <v>12.3125</v>
       </c>
       <c r="E18">
-        <v>8.5250000000000004</v>
+        <v>13.3125</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>13</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>7.75</v>
       </c>
       <c r="E19">
-        <v>8.65</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -24545,32 +24553,32 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.65</v>
+        <v>8.75</v>
       </c>
       <c r="E20">
-        <v>8.9204163456597989</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>8.9204163456597989</v>
+        <v>11</v>
       </c>
       <c r="E21">
-        <v>9.5204163456597986</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -24579,15 +24587,15 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.762829175487372</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>11</v>
+        <v>12.104166666666666</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23">
         <v>16</v>
@@ -24596,15 +24604,15 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>12.104166666666666</v>
       </c>
       <c r="E23">
-        <v>11.6</v>
+        <v>13.104166666666666</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -24613,10 +24621,10 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.6</v>
+        <v>13.104166666666666</v>
       </c>
       <c r="E24">
-        <v>13.983602840239959</v>
+        <v>13.326388888888888</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -24624,38 +24632,38 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>8.1224280270693541</v>
+        <v>13.326388888888888</v>
       </c>
       <c r="E25">
-        <v>10.25</v>
+        <v>14.326388888888888</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
         <v>4</v>
       </c>
-      <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-      <c r="D26">
-        <v>10.25</v>
-      </c>
       <c r="E26">
-        <v>11.15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -24664,32 +24672,32 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>11.512829175487372</v>
+        <v>5</v>
       </c>
       <c r="E27">
-        <v>11.75</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>11.75</v>
+        <v>6.5</v>
       </c>
       <c r="E28">
-        <v>12.65</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -24698,10 +24706,10 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>12.65</v>
+        <v>7.5</v>
       </c>
       <c r="E29">
-        <v>14.922457370337231</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -24709,16 +24717,16 @@
         <v>5</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>12.238874649549329</v>
+        <v>11.75</v>
       </c>
       <c r="E30">
-        <v>14</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -24726,16 +24734,16 @@
         <v>5</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D31">
+        <v>12.75</v>
+      </c>
+      <c r="E31">
         <v>14</v>
-      </c>
-      <c r="E31">
-        <v>14.9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -24743,16 +24751,16 @@
         <v>5</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>14.9</v>
+        <v>14</v>
       </c>
       <c r="E32">
-        <v>15.755131568824353</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -24760,16 +24768,16 @@
         <v>5</v>
       </c>
       <c r="B33">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>15.755131568824353</v>
+        <v>15</v>
       </c>
       <c r="E33">
-        <v>16.655131568824352</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -24777,16 +24785,16 @@
         <v>5</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>17.367573536480542</v>
+        <v>15.5</v>
       </c>
       <c r="E34">
-        <v>17.75</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -24794,16 +24802,16 @@
         <v>5</v>
       </c>
       <c r="B35">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>5</v>
       </c>
       <c r="D35">
-        <v>17.75</v>
+        <v>15.75</v>
       </c>
       <c r="E35">
-        <v>18.649999999999999</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -24817,185 +24825,185 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>18.649999999999999</v>
+        <v>16.75</v>
       </c>
       <c r="E36">
-        <v>21.392090899295646</v>
+        <v>16.9375</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>37</v>
+      </c>
+      <c r="C37">
         <v>6</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
       <c r="D37">
-        <v>14.494800677650963</v>
+        <v>16.9375</v>
       </c>
       <c r="E37">
-        <v>16</v>
+        <v>17.9375</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>17.9375</v>
       </c>
       <c r="E38">
-        <v>22.4</v>
+        <v>18.229166666666668</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D39">
-        <v>22.4</v>
+        <v>18.229166666666668</v>
       </c>
       <c r="E39">
-        <v>22.4</v>
+        <v>19.229166666666668</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>22.4</v>
+        <v>18.75</v>
       </c>
       <c r="E40">
-        <v>28.799999999999997</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>52</v>
+      </c>
+      <c r="C41">
         <v>6</v>
       </c>
-      <c r="B41">
-        <v>34</v>
-      </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
       <c r="D41">
-        <v>26.5</v>
+        <v>19.75</v>
       </c>
       <c r="E41">
-        <v>28.799999999999997</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D42">
-        <v>28.799999999999997</v>
+        <v>20.75</v>
       </c>
       <c r="E42">
-        <v>30.305199322349033</v>
+        <v>21.75</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D43">
-        <v>14.655474513518897</v>
+        <v>13.5</v>
       </c>
       <c r="E43">
-        <v>17.25</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>17.25</v>
+        <v>14.5</v>
       </c>
       <c r="E44">
-        <v>18.149999999999999</v>
+        <v>14.631944444444445</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D45">
-        <v>18.512829175487372</v>
+        <v>14.631944444444445</v>
       </c>
       <c r="E45">
-        <v>18.75</v>
+        <v>15.881944444444445</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>18.75</v>
+        <v>15.75</v>
       </c>
       <c r="E46">
-        <v>19.350000000000001</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -25004,32 +25012,32 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>20.75</v>
+        <v>16.75</v>
       </c>
       <c r="E47">
-        <v>20.75</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B48">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="C48">
         <v>5</v>
       </c>
       <c r="D48">
-        <v>20.75</v>
+        <v>17.25</v>
       </c>
       <c r="E48">
-        <v>21.65</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -25038,49 +25046,49 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>21.65</v>
+        <v>18.75</v>
       </c>
       <c r="E49">
-        <v>24.337529069610223</v>
+        <v>19.055555555555557</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>17.169585377863346</v>
+        <v>19.055555555555557</v>
       </c>
       <c r="E50">
-        <v>19.25</v>
+        <v>27.055555555555557</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51">
-        <v>19.25</v>
+        <v>14.25</v>
       </c>
       <c r="E51">
-        <v>20.149999999999999</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -25089,32 +25097,32 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>20.149999999999999</v>
+        <v>16</v>
       </c>
       <c r="E52">
-        <v>20.149999999999999</v>
+        <v>16.111111111111111</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B53">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53">
-        <v>20.149999999999999</v>
+        <v>16.111111111111111</v>
       </c>
       <c r="E53">
-        <v>21.049999999999997</v>
+        <v>17.111111111111111</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -25123,134 +25131,134 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>21.049999999999997</v>
+        <v>17.111111111111111</v>
       </c>
       <c r="E54">
-        <v>23.130414622136652</v>
+        <v>17.201388888888889</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D55">
-        <v>23.080538661326273</v>
+        <v>17.201388888888889</v>
       </c>
       <c r="E55">
-        <v>25.25</v>
+        <v>18.201388888888889</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B56">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>25.25</v>
+        <v>18.201388888888889</v>
       </c>
       <c r="E56">
-        <v>26.15</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D57">
-        <v>26.15</v>
+        <v>24.5</v>
       </c>
       <c r="E57">
-        <v>28.319461338673726</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D58">
-        <v>24.238874649549327</v>
+        <v>15.25</v>
       </c>
       <c r="E58">
-        <v>26</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B59">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>26</v>
+        <v>16.75</v>
       </c>
       <c r="E59">
-        <v>26.9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D60">
-        <v>30.301316701949485</v>
+        <v>24</v>
       </c>
       <c r="E60">
-        <v>31.25</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B61">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61">
-        <v>31.25</v>
+        <v>18.25</v>
       </c>
       <c r="E61">
-        <v>32.15</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -25259,49 +25267,49 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>32.645330668877605</v>
+        <v>19.25</v>
       </c>
       <c r="E62">
-        <v>33.25</v>
+        <v>19.465277777777779</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B63">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63">
-        <v>33.25</v>
+        <v>19.465277777777779</v>
       </c>
       <c r="E63">
-        <v>34.15</v>
+        <v>20.465277777777779</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D64">
-        <v>34.15</v>
+        <v>20.465277777777779</v>
       </c>
       <c r="E64">
-        <v>36.255424541511758</v>
+        <v>21.465277777777779</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -25310,100 +25318,100 @@
         <v>0</v>
       </c>
       <c r="D65">
+        <v>21.465277777777779</v>
+      </c>
+      <c r="E65">
         <v>26.5</v>
-      </c>
-      <c r="E65">
-        <v>28.580414622136654</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B66">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D66">
-        <v>28.580414622136654</v>
+        <v>26.5</v>
       </c>
       <c r="E66">
-        <v>34.980414622136657</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <v>34.980414622136657</v>
+        <v>21.465277777777779</v>
       </c>
       <c r="E67">
-        <v>37.060829244273314</v>
+        <v>29.465277777777779</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D68">
-        <v>28.272194310693475</v>
+        <v>25.25</v>
       </c>
       <c r="E68">
-        <v>30</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B69">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>30</v>
+        <v>26.25</v>
       </c>
       <c r="E69">
-        <v>30.9</v>
+        <v>26.368055555555557</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D70">
-        <v>30.9</v>
+        <v>26.368055555555557</v>
       </c>
       <c r="E70">
-        <v>32.627805689306527</v>
+        <v>27.368055555555557</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -25412,270 +25420,270 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>30.5</v>
+        <v>27.368055555555557</v>
       </c>
       <c r="E71">
-        <v>32.580414622136658</v>
+        <v>27.472222222222225</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B72">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D72">
-        <v>32.580414622136658</v>
+        <v>27.472222222222225</v>
       </c>
       <c r="E72">
-        <v>38.980414622136657</v>
+        <v>28.472222222222225</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B73">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>32.580414622136658</v>
+        <v>28.472222222222225</v>
       </c>
       <c r="E73">
-        <v>38.980414622136657</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D74">
-        <v>39.25</v>
+        <v>38</v>
       </c>
       <c r="E74">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B75">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E75">
-        <v>46.4</v>
+        <v>39.131944444444443</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B76">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76">
-        <v>42.5</v>
+        <v>39.131944444444443</v>
       </c>
       <c r="E76">
-        <v>45.5</v>
+        <v>40.131944444444443</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>45.5</v>
+        <v>28</v>
       </c>
       <c r="E77">
-        <v>47.005199322349036</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>31.5</v>
+        <v>27.5</v>
       </c>
       <c r="E78">
-        <v>33.005199322349036</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B79">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>33.005199322349036</v>
+        <v>35.5</v>
       </c>
       <c r="E79">
-        <v>39.405199322349034</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D80">
-        <v>39.405199322349034</v>
+        <v>38.5</v>
       </c>
       <c r="E80">
-        <v>40.91039864469807</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D81">
-        <v>38.75</v>
+        <v>30.5</v>
       </c>
       <c r="E81">
-        <v>41.06820242860713</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B82">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>41.06820242860713</v>
+        <v>31.5</v>
       </c>
       <c r="E82">
-        <v>41.968202428607128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>41.968202428607128</v>
+        <v>32</v>
       </c>
       <c r="E83">
-        <v>42.372089789142215</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B84">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C84">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>42.372089789142215</v>
+        <v>32</v>
       </c>
       <c r="E84">
-        <v>43.272089789142214</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>45.496259328415931</v>
+        <v>40</v>
       </c>
       <c r="E85">
-        <v>46.25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B86">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86">
-        <v>46.25</v>
+        <v>31.5</v>
       </c>
       <c r="E86">
-        <v>47.15</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -25684,32 +25692,32 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>47.15</v>
+        <v>32.5</v>
       </c>
       <c r="E87">
-        <v>47.38717082451263</v>
+        <v>33.25</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B88">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88">
-        <v>47.38717082451263</v>
+        <v>33.25</v>
       </c>
       <c r="E88">
-        <v>48.287170824512629</v>
+        <v>34.25</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -25718,66 +25726,66 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>48.287170824512629</v>
+        <v>34.25</v>
       </c>
       <c r="E89">
-        <v>50.433170009041831</v>
+        <v>38.25</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D90">
-        <v>39.75</v>
+        <v>38.25</v>
       </c>
       <c r="E90">
-        <v>41.830414622136658</v>
+        <v>39.25</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B91">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>41.830414622136658</v>
+        <v>39.25</v>
       </c>
       <c r="E91">
-        <v>48.230414622136657</v>
+        <v>39.4375</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D92">
-        <v>48.230414622136657</v>
+        <v>39.4375</v>
       </c>
       <c r="E92">
-        <v>50.310829244273314</v>
+        <v>41.1875</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -25786,66 +25794,66 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>40.75</v>
+        <v>41.1875</v>
       </c>
       <c r="E93">
-        <v>42.830414622136658</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B94">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C94">
         <v>4</v>
       </c>
       <c r="D94">
-        <v>42.830414622136658</v>
+        <v>41.5</v>
       </c>
       <c r="E94">
-        <v>43.730414622136657</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D95">
-        <v>43.730414622136657</v>
+        <v>42.25</v>
       </c>
       <c r="E95">
-        <v>44.823146290937373</v>
+        <v>43.25</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B96">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C96">
         <v>5</v>
       </c>
       <c r="D96">
-        <v>44.823146290937373</v>
+        <v>38.75</v>
       </c>
       <c r="E96">
-        <v>45.723146290937372</v>
+        <v>39.75</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -25854,32 +25862,32 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>45.723146290937372</v>
+        <v>39.75</v>
       </c>
       <c r="E97">
-        <v>45.960317115450003</v>
+        <v>40.097222222222221</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B98">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C98">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D98">
-        <v>45.960317115450003</v>
+        <v>40.097222222222221</v>
       </c>
       <c r="E98">
-        <v>46.560317115450005</v>
+        <v>41.097222222222221</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -25888,32 +25896,32 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <v>46.560317115450005</v>
+        <v>41.097222222222221</v>
       </c>
       <c r="E99">
-        <v>47.164986446572399</v>
+        <v>41.347222222222221</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B100">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100">
-        <v>47.164986446572399</v>
+        <v>41.347222222222221</v>
       </c>
       <c r="E100">
-        <v>48.064986446572398</v>
+        <v>42.347222222222221</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -25922,61 +25930,639 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <v>48.064986446572398</v>
+        <v>42.347222222222221</v>
       </c>
       <c r="E101">
-        <v>50.222314075839684</v>
+        <v>42.75</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D102">
+        <v>42.75</v>
+      </c>
+      <c r="E102">
         <v>43.75</v>
-      </c>
-      <c r="E102">
-        <v>45.255199322349036</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B103">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>45.255199322349036</v>
+        <v>43.75</v>
       </c>
       <c r="E103">
-        <v>51.655199322349034</v>
+        <v>44.020833333333336</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
+        <v>15</v>
+      </c>
+      <c r="B104">
+        <v>77</v>
+      </c>
+      <c r="C104">
+        <v>5</v>
+      </c>
+      <c r="D104">
+        <v>44.020833333333336</v>
+      </c>
+      <c r="E104">
+        <v>45.020833333333336</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>15</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>45.020833333333336</v>
+      </c>
+      <c r="E105">
+        <v>45.180555555555557</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>15</v>
+      </c>
+      <c r="B106">
+        <v>73</v>
+      </c>
+      <c r="C106">
+        <v>5</v>
+      </c>
+      <c r="D106">
+        <v>45.180555555555557</v>
+      </c>
+      <c r="E106">
+        <v>46.180555555555557</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>15</v>
+      </c>
+      <c r="B107">
+        <v>76</v>
+      </c>
+      <c r="C107">
+        <v>5</v>
+      </c>
+      <c r="D107">
+        <v>45.020833333333336</v>
+      </c>
+      <c r="E107">
+        <v>46.270833333333336</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>15</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>46.270833333333336</v>
+      </c>
+      <c r="E108">
+        <v>46.31944444444445</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>15</v>
+      </c>
+      <c r="B109">
+        <v>79</v>
+      </c>
+      <c r="C109">
+        <v>5</v>
+      </c>
+      <c r="D109">
+        <v>46.31944444444445</v>
+      </c>
+      <c r="E109">
+        <v>48.06944444444445</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>15</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>48.06944444444445</v>
+      </c>
+      <c r="E110">
+        <v>48.13194444444445</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>15</v>
+      </c>
+      <c r="B111">
+        <v>61</v>
+      </c>
+      <c r="C111">
+        <v>5</v>
+      </c>
+      <c r="D111">
+        <v>48.13194444444445</v>
+      </c>
+      <c r="E111">
+        <v>49.13194444444445</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>16</v>
+      </c>
+      <c r="B112">
+        <v>84</v>
+      </c>
+      <c r="C112">
+        <v>5</v>
+      </c>
+      <c r="D112">
+        <v>42.25</v>
+      </c>
+      <c r="E112">
+        <v>43.25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>16</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>43.25</v>
+      </c>
+      <c r="E113">
+        <v>43.305555555555557</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>16</v>
+      </c>
+      <c r="B114">
+        <v>85</v>
+      </c>
+      <c r="C114">
+        <v>5</v>
+      </c>
+      <c r="D114">
+        <v>43.305555555555557</v>
+      </c>
+      <c r="E114">
+        <v>44.805555555555557</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>16</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>44.805555555555557</v>
+      </c>
+      <c r="E115">
+        <v>44.916666666666671</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>16</v>
+      </c>
+      <c r="B116">
+        <v>63</v>
+      </c>
+      <c r="C116">
+        <v>5</v>
+      </c>
+      <c r="D116">
+        <v>44.916666666666671</v>
+      </c>
+      <c r="E116">
+        <v>45.916666666666671</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>16</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>45.916666666666671</v>
+      </c>
+      <c r="E117">
+        <v>46.75</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>16</v>
+      </c>
+      <c r="B118">
+        <v>75</v>
+      </c>
+      <c r="C118">
+        <v>5</v>
+      </c>
+      <c r="D118">
+        <v>46.75</v>
+      </c>
+      <c r="E118">
+        <v>47.75</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>17</v>
+      </c>
+      <c r="B119">
+        <v>43</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>41.25</v>
+      </c>
+      <c r="E119">
+        <v>42.25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>17</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>42.25</v>
+      </c>
+      <c r="E120">
+        <v>42.506944444444443</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>17</v>
+      </c>
+      <c r="B121">
+        <v>83</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>42.506944444444443</v>
+      </c>
+      <c r="E121">
+        <v>43.506944444444443</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>17</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>43.506944444444443</v>
+      </c>
+      <c r="E122">
+        <v>43.611111111111107</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>17</v>
+      </c>
+      <c r="B123">
+        <v>82</v>
+      </c>
+      <c r="C123">
+        <v>4</v>
+      </c>
+      <c r="D123">
+        <v>43.611111111111107</v>
+      </c>
+      <c r="E123">
+        <v>44.611111111111107</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>17</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>44.611111111111107</v>
+      </c>
+      <c r="E124">
+        <v>44.86805555555555</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>17</v>
+      </c>
+      <c r="B125">
+        <v>72</v>
+      </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
+      <c r="D125">
+        <v>44.86805555555555</v>
+      </c>
+      <c r="E125">
+        <v>45.86805555555555</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>17</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>45.86805555555555</v>
+      </c>
+      <c r="E126">
+        <v>46.25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>17</v>
+      </c>
+      <c r="B127">
+        <v>60</v>
+      </c>
+      <c r="C127">
+        <v>4</v>
+      </c>
+      <c r="D127">
+        <v>46.25</v>
+      </c>
+      <c r="E127">
+        <v>47.25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>17</v>
+      </c>
+      <c r="B128">
+        <v>62</v>
+      </c>
+      <c r="C128">
+        <v>5</v>
+      </c>
+      <c r="D128">
+        <v>45.86805555555555</v>
+      </c>
+      <c r="E128">
+        <v>47.36805555555555</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>17</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>47.36805555555555</v>
+      </c>
+      <c r="E129">
+        <v>47.562499999999993</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>17</v>
+      </c>
+      <c r="B130">
+        <v>74</v>
+      </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
+      <c r="D130">
+        <v>47.562499999999993</v>
+      </c>
+      <c r="E130">
+        <v>48.562499999999993</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
         <v>18</v>
       </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104">
-        <v>51.655199322349034</v>
-      </c>
-      <c r="E104">
-        <v>53.16039864469807</v>
+      <c r="B131">
+        <v>78</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+      <c r="D131">
+        <v>44.5</v>
+      </c>
+      <c r="E131">
+        <v>46.25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>18</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>46.25</v>
+      </c>
+      <c r="E132">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>18</v>
+      </c>
+      <c r="B133">
+        <v>80</v>
+      </c>
+      <c r="C133">
+        <v>5</v>
+      </c>
+      <c r="D133">
+        <v>46.5</v>
+      </c>
+      <c r="E133">
+        <v>47.75</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>18</v>
+      </c>
+      <c r="B134">
+        <v>87</v>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
+      <c r="D134">
+        <v>46.75</v>
+      </c>
+      <c r="E134">
+        <v>47.75</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>18</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>47.75</v>
+      </c>
+      <c r="E135">
+        <v>47.9375</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>18</v>
+      </c>
+      <c r="B136">
+        <v>36</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <v>47.9375</v>
+      </c>
+      <c r="E136">
+        <v>55.9375</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>18</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>47.75</v>
+      </c>
+      <c r="E137">
+        <v>47.9375</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>18</v>
+      </c>
+      <c r="B138">
+        <v>36</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <v>47.9375</v>
+      </c>
+      <c r="E138">
+        <v>55.9375</v>
       </c>
     </row>
   </sheetData>
